--- a/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{166B6BA8-C271-46EE-86CE-16596B0D34B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF6210-0409-4BB5-8BD3-4BD28974C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -1039,9 +1039,6 @@
     <t>CONOGRAMA DE PRACTICAS PREPROFESIONALES</t>
   </si>
   <si>
-    <t>Función: Pasante de desarrollo y actualizacion de aplicativos moviles</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -1614,6 +1611,9 @@
   </si>
   <si>
     <t>Aplicar los ajustes necesarios en la documentación, asegurándose de que todos los comentarios y sugerencias sean abordados de manera adecuada y entrega a los responsables del proyecto.</t>
+  </si>
+  <si>
+    <t>Función: Estudiante de desarrollo y actualizacion de aplicativos moviles</t>
   </si>
 </sst>
 </file>
@@ -1857,6 +1857,45 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,49 +1905,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,6 +1947,18 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,48 +1969,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2320,52 +2320,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2397,22 +2397,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="36">
         <v>45559</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="36">
         <v>45562</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="36">
         <v>45559</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2421,72 +2421,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="36">
         <v>45565</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="37">
         <v>45588</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="36">
         <v>45565</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2495,267 +2495,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="34">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="28"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="36">
         <v>45590</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="36">
         <v>45594</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="36">
         <v>45590</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2764,57 +2764,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="28"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="36">
         <v>45596</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="36">
         <v>45604</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="36">
         <v>45596</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2823,132 +2823,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="28"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="36">
         <v>45607</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="36">
         <v>45615</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="36">
         <v>45607</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2957,237 +2957,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="34">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="28"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="28"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="28"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="28"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="28"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="28"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="28"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="28">
         <v>45616</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="28">
         <v>45616</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="28">
         <v>45616</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3196,42 +3196,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="36">
         <v>45617</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="36">
         <v>45618</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="36">
         <v>45618</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3240,39 +3240,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="28"/>
+      <c r="K57" s="34"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="28"/>
+      <c r="K58" s="34"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3304,22 +3304,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="28">
         <v>45622</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="28">
         <v>45622</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="28">
         <v>45622</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="37">
+      <c r="H60" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3328,50 +3328,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="32">
+      <c r="K60" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="33"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="33"/>
+      <c r="K61" s="26"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="34"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3383,49 +3383,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="D39:D53"/>
-    <mergeCell ref="E39:E53"/>
-    <mergeCell ref="F39:F53"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="H39:H53"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="D11:D27"/>
-    <mergeCell ref="E11:E27"/>
-    <mergeCell ref="F11:F27"/>
-    <mergeCell ref="G11:G27"/>
-    <mergeCell ref="H11:H27"/>
-    <mergeCell ref="K11:K27"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C63:I63"/>
@@ -3442,6 +3399,49 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="D11:D27"/>
+    <mergeCell ref="E11:E27"/>
+    <mergeCell ref="F11:F27"/>
+    <mergeCell ref="G11:G27"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="K11:K27"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
   <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,70 +3467,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -3545,16 +3545,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -3564,115 +3564,115 @@
       </c>
     </row>
     <row r="6" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="36">
         <v>45559</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>45562</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="36">
         <v>45559</v>
       </c>
-      <c r="I6" s="53" t="s">
-        <v>86</v>
+      <c r="I6" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="43">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="53"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="K7" s="34"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29">
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36">
         <v>45560</v>
       </c>
-      <c r="I8" s="53" t="s">
-        <v>90</v>
+      <c r="I8" s="57" t="s">
+        <v>89</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="28"/>
+        <v>92</v>
+      </c>
+      <c r="K8" s="34"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="28"/>
+        <v>93</v>
+      </c>
+      <c r="K9" s="34"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="K10" s="34"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3681,21 +3681,21 @@
       </c>
     </row>
     <row r="11" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="28"/>
+        <v>127</v>
+      </c>
+      <c r="K11" s="34"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3704,353 +3704,353 @@
       </c>
     </row>
     <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="28">
         <v>45565</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="49">
         <v>45588</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="28">
         <v>45565</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>96</v>
+      <c r="I12" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="33"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="K13" s="34"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="33"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="35">
+      <c r="C14" s="26"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="28">
         <v>45566</v>
       </c>
-      <c r="I14" s="41" t="s">
-        <v>97</v>
+      <c r="I14" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="28"/>
+        <v>112</v>
+      </c>
+      <c r="K14" s="34"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="33"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="28"/>
+        <v>113</v>
+      </c>
+      <c r="K15" s="34"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="42"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="3:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="33"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="35">
+      <c r="C16" s="26"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="28">
         <v>45567</v>
       </c>
-      <c r="I16" s="41" t="s">
-        <v>98</v>
+      <c r="I16" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="28"/>
+        <v>199</v>
+      </c>
+      <c r="K16" s="34"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="33"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="28"/>
+        <v>192</v>
+      </c>
+      <c r="K17" s="34"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="42"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="33"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="35">
+      <c r="C18" s="26"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="28">
         <v>45568</v>
       </c>
-      <c r="I18" s="41" t="s">
-        <v>99</v>
+      <c r="I18" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="28"/>
+        <v>188</v>
+      </c>
+      <c r="K18" s="34"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="33"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K19" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="K19" s="34"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="33"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="35">
+      <c r="C20" s="26"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="28">
         <v>45569</v>
       </c>
-      <c r="I20" s="41" t="s">
-        <v>111</v>
+      <c r="I20" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" s="28"/>
+        <v>193</v>
+      </c>
+      <c r="K20" s="34"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="41"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" s="28"/>
+        <v>194</v>
+      </c>
+      <c r="K21" s="34"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="3:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="35">
+      <c r="C22" s="26"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="28">
         <v>45572</v>
       </c>
-      <c r="I22" s="41" t="s">
-        <v>191</v>
+      <c r="I22" s="46" t="s">
+        <v>190</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" s="28"/>
+        <v>195</v>
+      </c>
+      <c r="K22" s="34"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="33"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" s="28"/>
+        <v>189</v>
+      </c>
+      <c r="K23" s="34"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="3:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="35">
+      <c r="C24" s="26"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="28">
         <v>45573</v>
       </c>
-      <c r="I24" s="41" t="s">
-        <v>100</v>
+      <c r="I24" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="28"/>
+        <v>198</v>
+      </c>
+      <c r="K24" s="34"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="33"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="K25" s="28"/>
+        <v>196</v>
+      </c>
+      <c r="K25" s="34"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="42"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="35">
+      <c r="C26" s="26"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="28">
         <v>45574</v>
       </c>
-      <c r="I26" s="41" t="s">
-        <v>101</v>
+      <c r="I26" s="46" t="s">
+        <v>100</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="K26" s="34"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="41"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" s="28"/>
+        <v>197</v>
+      </c>
+      <c r="K27" s="34"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="42"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="33"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="28"/>
+        <v>200</v>
+      </c>
+      <c r="K28" s="34"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -4059,21 +4059,21 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="K29" s="28"/>
+        <v>201</v>
+      </c>
+      <c r="K29" s="34"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -4082,1429 +4082,1429 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="33"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="35">
+      <c r="C30" s="26"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="28">
         <v>45580</v>
       </c>
-      <c r="I30" s="41" t="s">
-        <v>104</v>
+      <c r="I30" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="K30" s="34"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="33"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="41"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31" s="28"/>
+        <v>117</v>
+      </c>
+      <c r="K31" s="34"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="42"/>
+      <c r="M31" s="43"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="33"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="35">
+      <c r="C32" s="26"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28">
         <v>45581</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>105</v>
+      <c r="I32" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="K32" s="28"/>
+        <v>202</v>
+      </c>
+      <c r="K32" s="34"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="33"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="43"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="28"/>
+        <v>203</v>
+      </c>
+      <c r="K33" s="34"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="42"/>
+      <c r="M33" s="43"/>
     </row>
     <row r="34" spans="3:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="33"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="35">
+      <c r="C34" s="26"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="28">
         <v>45582</v>
       </c>
-      <c r="I34" s="45" t="s">
-        <v>106</v>
+      <c r="I34" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="K34" s="28"/>
+        <v>204</v>
+      </c>
+      <c r="K34" s="34"/>
       <c r="L34" s="6">
         <v>4</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="33"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="46"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K35" s="28"/>
+        <v>205</v>
+      </c>
+      <c r="K35" s="34"/>
       <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="33"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="3">
         <v>45583</v>
       </c>
       <c r="I36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="6">
+        <v>6</v>
+      </c>
+      <c r="M36" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="26"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="28">
+        <v>45586</v>
+      </c>
+      <c r="I37" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="6">
-        <v>6</v>
-      </c>
-      <c r="M36" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="35">
-        <v>45586</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>108</v>
-      </c>
       <c r="J37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="K37" s="34"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="33"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="28"/>
+        <v>120</v>
+      </c>
+      <c r="K38" s="34"/>
       <c r="L38" s="6">
         <v>3</v>
       </c>
-      <c r="M38" s="42"/>
+      <c r="M38" s="43"/>
     </row>
     <row r="39" spans="3:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="3">
         <v>45580</v>
       </c>
       <c r="I39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" s="6">
+        <v>6</v>
+      </c>
+      <c r="M39" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="36">
+        <v>45588</v>
+      </c>
+      <c r="I40" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" s="28"/>
-      <c r="L39" s="6">
-        <v>6</v>
-      </c>
-      <c r="M39" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="33"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="29">
-        <v>45588</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>110</v>
-      </c>
       <c r="J40" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" s="28"/>
+        <v>210</v>
+      </c>
+      <c r="K40" s="34"/>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="44"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K41" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="K41" s="34"/>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="42"/>
+      <c r="M41" s="43"/>
     </row>
     <row r="42" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="36">
         <v>45590</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="36">
         <v>45594</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="36">
         <v>45590</v>
       </c>
-      <c r="I42" s="41" t="s">
-        <v>124</v>
+      <c r="I42" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="41"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="K43" s="28"/>
+        <v>209</v>
+      </c>
+      <c r="K43" s="34"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="42"/>
+      <c r="M43" s="43"/>
     </row>
     <row r="44" spans="3:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="41"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="K44" s="28"/>
+        <v>245</v>
+      </c>
+      <c r="K44" s="34"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="42"/>
+      <c r="M44" s="43"/>
     </row>
     <row r="45" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="29">
+      <c r="C45" s="34"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36">
         <v>45593</v>
       </c>
-      <c r="I45" s="41" t="s">
-        <v>125</v>
+      <c r="I45" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="K45" s="28"/>
+        <v>211</v>
+      </c>
+      <c r="K45" s="34"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="41"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="K46" s="28"/>
+        <v>212</v>
+      </c>
+      <c r="K46" s="34"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="42"/>
+      <c r="M46" s="43"/>
     </row>
     <row r="47" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="41"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="K47" s="28"/>
+        <v>213</v>
+      </c>
+      <c r="K47" s="34"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="42"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="29">
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36">
         <v>45594</v>
       </c>
-      <c r="I48" s="41" t="s">
-        <v>126</v>
+      <c r="I48" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="K48" s="28"/>
+        <v>214</v>
+      </c>
+      <c r="K48" s="34"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="41"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="K49" s="28"/>
+        <v>215</v>
+      </c>
+      <c r="K49" s="34"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="42"/>
+      <c r="M49" s="43"/>
     </row>
     <row r="50" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="41"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K50" s="28"/>
+        <v>216</v>
+      </c>
+      <c r="K50" s="34"/>
       <c r="L50" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="42"/>
+      <c r="M50" s="43"/>
     </row>
     <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="36">
         <v>45596</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="36">
         <v>45604</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="36">
         <v>45596</v>
       </c>
-      <c r="I51" s="41" t="s">
-        <v>129</v>
+      <c r="I51" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>137</v>
+        <v>217</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="41"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K52" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="K52" s="34"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="28"/>
+      <c r="M52" s="34"/>
     </row>
     <row r="53" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="41"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="K53" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="K53" s="34"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="28"/>
+      <c r="M53" s="34"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="41"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="K54" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="K54" s="34"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="28"/>
+      <c r="M54" s="34"/>
     </row>
     <row r="55" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="41"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="28"/>
+        <v>221</v>
+      </c>
+      <c r="K55" s="34"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="28"/>
+      <c r="M55" s="34"/>
     </row>
     <row r="56" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="41"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="K56" s="28"/>
+        <v>246</v>
+      </c>
+      <c r="K56" s="34"/>
       <c r="L56" s="6">
         <v>1</v>
       </c>
-      <c r="M56" s="28"/>
+      <c r="M56" s="34"/>
     </row>
     <row r="57" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="29">
+      <c r="C57" s="34"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36">
         <v>45602</v>
       </c>
-      <c r="I57" s="41" t="s">
+      <c r="I57" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J57" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="28"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M57" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="57"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="48"/>
       <c r="J58" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="K58" s="28"/>
+        <v>222</v>
+      </c>
+      <c r="K58" s="34"/>
       <c r="L58" s="6">
         <v>1</v>
       </c>
-      <c r="M58" s="28"/>
+      <c r="M58" s="34"/>
     </row>
     <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="57" t="s">
-        <v>132</v>
+      <c r="C59" s="34"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="48" t="s">
+        <v>131</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="K59" s="28"/>
+        <v>223</v>
+      </c>
+      <c r="K59" s="34"/>
       <c r="L59" s="6">
         <v>2</v>
       </c>
-      <c r="M59" s="28"/>
+      <c r="M59" s="34"/>
     </row>
     <row r="60" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="57"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="48"/>
       <c r="J60" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K60" s="28"/>
+        <v>224</v>
+      </c>
+      <c r="K60" s="34"/>
       <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M60" s="28"/>
+      <c r="M60" s="34"/>
     </row>
     <row r="61" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="29">
+      <c r="C61" s="34"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="36">
         <v>45603</v>
       </c>
-      <c r="I61" s="41" t="s">
-        <v>133</v>
+      <c r="I61" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="K61" s="28"/>
+        <v>225</v>
+      </c>
+      <c r="K61" s="34"/>
       <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="57"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="48"/>
       <c r="J62" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="K62" s="28"/>
+        <v>226</v>
+      </c>
+      <c r="K62" s="34"/>
       <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M62" s="28"/>
+      <c r="M62" s="34"/>
     </row>
     <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="57" t="s">
-        <v>135</v>
+      <c r="C63" s="34"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="K63" s="28"/>
+        <v>227</v>
+      </c>
+      <c r="K63" s="34"/>
       <c r="L63" s="6">
         <v>2</v>
       </c>
-      <c r="M63" s="28"/>
+      <c r="M63" s="34"/>
     </row>
     <row r="64" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="48"/>
       <c r="J64" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="K64" s="28"/>
+        <v>228</v>
+      </c>
+      <c r="K64" s="34"/>
       <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M64" s="28"/>
+      <c r="M64" s="34"/>
     </row>
     <row r="65" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="29">
+      <c r="C65" s="34"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="36">
         <v>45604</v>
       </c>
       <c r="I65" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="J65" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="J65" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="K65" s="28"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="6">
         <v>3</v>
       </c>
-      <c r="M65" s="28">
+      <c r="M65" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="41" t="s">
-        <v>136</v>
+      <c r="C66" s="34"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="K66" s="28"/>
+        <v>133</v>
+      </c>
+      <c r="K66" s="34"/>
       <c r="L66" s="6">
         <v>2</v>
       </c>
-      <c r="M66" s="28"/>
+      <c r="M66" s="34"/>
     </row>
     <row r="67" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="48"/>
       <c r="J67" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="K67" s="28"/>
+        <v>231</v>
+      </c>
+      <c r="K67" s="34"/>
       <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="M67" s="28"/>
+      <c r="M67" s="34"/>
     </row>
     <row r="68" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="36">
         <v>45607</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="36">
         <v>45615</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H68" s="36">
         <v>45607</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M68" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="41" t="s">
-        <v>141</v>
+      <c r="C69" s="34"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K69" s="28"/>
+        <v>142</v>
+      </c>
+      <c r="K69" s="34"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="28"/>
+      <c r="M69" s="34"/>
     </row>
     <row r="70" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="41"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K70" s="28"/>
+        <v>233</v>
+      </c>
+      <c r="K70" s="34"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="28"/>
+      <c r="M70" s="34"/>
     </row>
     <row r="71" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="29">
+      <c r="C71" s="34"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36">
         <v>45608</v>
       </c>
-      <c r="I71" s="43" t="s">
-        <v>140</v>
+      <c r="I71" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="K71" s="28"/>
+        <v>234</v>
+      </c>
+      <c r="K71" s="34"/>
       <c r="L71" s="6">
         <v>2</v>
       </c>
-      <c r="M71" s="28">
+      <c r="M71" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="43"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="K72" s="28"/>
+        <v>235</v>
+      </c>
+      <c r="K72" s="34"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="28"/>
+      <c r="M72" s="34"/>
     </row>
     <row r="73" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="44" t="s">
-        <v>139</v>
+      <c r="C73" s="34"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="K73" s="28"/>
+        <v>143</v>
+      </c>
+      <c r="K73" s="34"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="28"/>
+      <c r="M73" s="34"/>
     </row>
     <row r="74" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="44"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K74" s="28"/>
+        <v>144</v>
+      </c>
+      <c r="K74" s="34"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="28"/>
+      <c r="M74" s="34"/>
     </row>
     <row r="75" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="44"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="54"/>
       <c r="J75" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K75" s="28"/>
+        <v>145</v>
+      </c>
+      <c r="K75" s="34"/>
       <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="M75" s="28"/>
+      <c r="M75" s="34"/>
     </row>
     <row r="76" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="29">
+      <c r="C76" s="34"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36">
         <v>45609</v>
       </c>
-      <c r="I76" s="41" t="s">
-        <v>138</v>
+      <c r="I76" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="J76" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K76" s="34"/>
+      <c r="L76" s="43">
+        <v>2</v>
+      </c>
+      <c r="M76" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="C77" s="34"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="42">
-        <v>2</v>
-      </c>
-      <c r="M76" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="14" t="s">
+      <c r="K77" s="34"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="34"/>
+    </row>
+    <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="34"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="28"/>
-    </row>
-    <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="28"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="34"/>
     </row>
     <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="29"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="J79" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="K79" s="28"/>
+      <c r="K79" s="34"/>
       <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="M79" s="28"/>
+      <c r="M79" s="34"/>
     </row>
     <row r="80" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="41" t="s">
-        <v>248</v>
+      <c r="C80" s="34"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="46" t="s">
+        <v>247</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K80" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="K80" s="34"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="28"/>
+      <c r="M80" s="34"/>
     </row>
     <row r="81" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="41"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="46"/>
       <c r="J81" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K81" s="28"/>
+        <v>157</v>
+      </c>
+      <c r="K81" s="34"/>
       <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="M81" s="28"/>
+      <c r="M81" s="34"/>
     </row>
     <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="29">
+      <c r="C82" s="34"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36">
         <v>45610</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="K82" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="K82" s="34"/>
       <c r="L82" s="6">
         <v>3</v>
       </c>
-      <c r="M82" s="28">
+      <c r="M82" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="41" t="s">
-        <v>148</v>
+      <c r="C83" s="34"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="46" t="s">
+        <v>147</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K83" s="28"/>
+        <v>160</v>
+      </c>
+      <c r="K83" s="34"/>
       <c r="L83" s="6">
         <v>2</v>
       </c>
-      <c r="M83" s="28"/>
+      <c r="M83" s="34"/>
     </row>
     <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="41"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="46"/>
       <c r="J84" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K84" s="28"/>
+        <v>161</v>
+      </c>
+      <c r="K84" s="34"/>
       <c r="L84" s="6">
         <v>1</v>
       </c>
-      <c r="M84" s="28"/>
+      <c r="M84" s="34"/>
     </row>
     <row r="85" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29">
+      <c r="C85" s="34"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="36">
         <v>45611</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K85" s="28"/>
+        <v>164</v>
+      </c>
+      <c r="K85" s="34"/>
       <c r="L85" s="6">
         <v>3</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="41" t="s">
-        <v>150</v>
+      <c r="C86" s="34"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K86" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="K86" s="34"/>
       <c r="L86" s="6">
         <v>2</v>
       </c>
-      <c r="M86" s="28"/>
+      <c r="M86" s="34"/>
     </row>
     <row r="87" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="41"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K87" s="28"/>
+        <v>163</v>
+      </c>
+      <c r="K87" s="34"/>
       <c r="L87" s="6">
         <v>1</v>
       </c>
-      <c r="M87" s="28"/>
+      <c r="M87" s="34"/>
     </row>
     <row r="88" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="29">
+      <c r="C88" s="34"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="36">
         <v>45614</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="K88" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="K88" s="34"/>
       <c r="L88" s="6">
         <v>4</v>
       </c>
-      <c r="M88" s="28">
+      <c r="M88" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="29"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K89" s="28"/>
+        <v>166</v>
+      </c>
+      <c r="K89" s="34"/>
       <c r="L89" s="6">
         <v>2</v>
       </c>
-      <c r="M89" s="28"/>
+      <c r="M89" s="34"/>
     </row>
     <row r="90" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="29">
+      <c r="C90" s="34"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36">
         <v>45615</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="K90" s="28"/>
+        <v>167</v>
+      </c>
+      <c r="K90" s="34"/>
       <c r="L90" s="6">
         <v>4</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="29"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K91" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="K91" s="34"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="28"/>
+      <c r="M91" s="34"/>
     </row>
     <row r="92" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="36">
         <v>45616</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="36">
         <v>45616</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G92" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H92" s="29">
+      <c r="H92" s="36">
         <v>45616</v>
       </c>
-      <c r="I92" s="60" t="s">
-        <v>159</v>
+      <c r="I92" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K92" s="42"/>
+        <v>171</v>
+      </c>
+      <c r="K92" s="43"/>
       <c r="L92" s="6">
         <v>2</v>
       </c>
-      <c r="M92" s="28">
+      <c r="M92" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="60"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="47"/>
       <c r="J93" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K93" s="42"/>
+        <v>172</v>
+      </c>
+      <c r="K93" s="43"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="28"/>
+      <c r="M93" s="34"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="60" t="s">
-        <v>242</v>
+      <c r="C94" s="34"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="47" t="s">
+        <v>241</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K94" s="42"/>
+        <v>240</v>
+      </c>
+      <c r="K94" s="43"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="28"/>
+      <c r="M94" s="34"/>
     </row>
     <row r="95" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="60"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="47"/>
       <c r="J95" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K95" s="42"/>
+        <v>238</v>
+      </c>
+      <c r="K95" s="43"/>
       <c r="L95" s="6">
         <v>1</v>
       </c>
-      <c r="M95" s="28"/>
+      <c r="M95" s="34"/>
     </row>
     <row r="96" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="36">
         <v>45617</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="36">
         <v>45618</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H96" s="29">
+      <c r="H96" s="36">
         <v>45617</v>
       </c>
-      <c r="I96" s="58" t="s">
+      <c r="I96" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J96" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K96" s="32" t="s">
-        <v>181</v>
+      <c r="K96" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="L96" s="6">
         <v>2</v>
       </c>
-      <c r="M96" s="32">
+      <c r="M96" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="58"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="44"/>
       <c r="J97" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="K97" s="33"/>
+        <v>175</v>
+      </c>
+      <c r="K97" s="26"/>
       <c r="L97" s="6">
         <v>1</v>
       </c>
-      <c r="M97" s="33"/>
+      <c r="M97" s="26"/>
     </row>
     <row r="98" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="58" t="s">
-        <v>180</v>
+      <c r="C98" s="34"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="44" t="s">
+        <v>179</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="K98" s="33"/>
+        <v>239</v>
+      </c>
+      <c r="K98" s="26"/>
       <c r="L98" s="6">
         <v>2</v>
       </c>
-      <c r="M98" s="33"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="59"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="45"/>
       <c r="J99" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="K99" s="33"/>
+        <v>176</v>
+      </c>
+      <c r="K99" s="26"/>
       <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="M99" s="34"/>
+      <c r="M99" s="27"/>
     </row>
     <row r="100" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="11">
         <v>45618</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K100" s="33"/>
+        <v>177</v>
+      </c>
+      <c r="K100" s="26"/>
       <c r="L100" s="6">
         <v>6</v>
       </c>
@@ -5513,140 +5513,140 @@
       </c>
     </row>
     <row r="101" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="28">
         <v>45621</v>
       </c>
-      <c r="E101" s="35">
+      <c r="E101" s="28">
         <v>45621</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G101" s="37">
+      <c r="G101" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="28">
         <v>45621</v>
       </c>
-      <c r="I101" s="61" t="s">
-        <v>184</v>
+      <c r="I101" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K101" s="32" t="s">
-        <v>187</v>
+        <v>181</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="32">
+      <c r="M101" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="34"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="62"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="42"/>
       <c r="J102" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="K102" s="34"/>
+        <v>182</v>
+      </c>
+      <c r="K102" s="27"/>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="34"/>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="36">
         <v>45622</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="36">
         <v>45622</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G103" s="30">
+      <c r="G103" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H103" s="35">
+      <c r="H103" s="28">
         <v>45622</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="K103" s="32" t="s">
-        <v>188</v>
+        <v>242</v>
+      </c>
+      <c r="K103" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="L103" s="2">
         <v>3</v>
       </c>
-      <c r="M103" s="28">
+      <c r="M103" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="38"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J104" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="J104" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="K104" s="33"/>
+      <c r="K104" s="26"/>
       <c r="L104" s="2">
         <v>1</v>
       </c>
-      <c r="M104" s="28"/>
+      <c r="M104" s="34"/>
     </row>
     <row r="105" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="39"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="K105" s="34"/>
+        <v>248</v>
+      </c>
+      <c r="K105" s="27"/>
       <c r="L105" s="2">
         <v>2</v>
       </c>
-      <c r="M105" s="28"/>
+      <c r="M105" s="34"/>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12">
@@ -5660,18 +5660,133 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M92:M95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K41"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F68:F91"/>
+    <mergeCell ref="G68:G91"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="D68:D91"/>
+    <mergeCell ref="E68:E91"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C12:C41"/>
+    <mergeCell ref="D12:D41"/>
+    <mergeCell ref="E12:E41"/>
+    <mergeCell ref="F12:F41"/>
+    <mergeCell ref="G12:G41"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="K42:K50"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C51:C67"/>
+    <mergeCell ref="D51:D67"/>
+    <mergeCell ref="E51:E67"/>
+    <mergeCell ref="F51:F67"/>
+    <mergeCell ref="G51:G67"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K51:K67"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I66:I67"/>
     <mergeCell ref="M96:M99"/>
     <mergeCell ref="K96:K100"/>
     <mergeCell ref="H26:H27"/>
@@ -5696,133 +5811,18 @@
     <mergeCell ref="I76:I78"/>
     <mergeCell ref="L76:L78"/>
     <mergeCell ref="I80:I81"/>
-    <mergeCell ref="C51:C67"/>
-    <mergeCell ref="D51:D67"/>
-    <mergeCell ref="E51:E67"/>
-    <mergeCell ref="F51:F67"/>
-    <mergeCell ref="G51:G67"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="K51:K67"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M51:M56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="K42:K50"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="C12:C41"/>
-    <mergeCell ref="D12:D41"/>
-    <mergeCell ref="E12:E41"/>
-    <mergeCell ref="F12:F41"/>
-    <mergeCell ref="G12:G41"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="F42:F50"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="C68:C91"/>
-    <mergeCell ref="D68:D91"/>
-    <mergeCell ref="E68:E91"/>
-    <mergeCell ref="M92:M95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K41"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F68:F91"/>
-    <mergeCell ref="G68:G91"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="H71:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="M103:M105"/>
   </mergeCells>
   <conditionalFormatting sqref="I42 I45 I48 J53:J55">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF6210-0409-4BB5-8BD3-4BD28974C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD28DA-8DEF-43E3-A773-BD8B2DA498AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -1589,9 +1589,6 @@
     <t>Escribir un informe dando la parte introductoria que describa el objetivo principal del proyecto, su propósito y la importancia de las decisiones tomadas durante el desarrollo.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Redacción  y finalizción sobre la creación del Informe sobre el la actualización y mejora de la app.</t>
-  </si>
-  <si>
     <t>Realizar una revisión exhaustiva del documento, asegurándose de que todas las secciones estén completas y bien estructuradas.</t>
   </si>
   <si>
@@ -1614,6 +1611,9 @@
   </si>
   <si>
     <t>Función: Estudiante de desarrollo y actualizacion de aplicativos moviles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redacción  y finalización sobre la creación del Informe sobre el la actualización y mejora de la app.</t>
   </si>
 </sst>
 </file>
@@ -1857,6 +1857,27 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,91 +1905,70 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2320,52 +2320,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2397,22 +2397,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="29">
         <v>45559</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="29">
         <v>45562</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="29">
         <v>45559</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2421,72 +2421,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="29">
         <v>45565</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="31">
         <v>45588</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="29">
         <v>45565</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2495,267 +2495,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="28">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="29">
         <v>45590</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="29">
         <v>45594</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="29">
         <v>45590</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2764,57 +2764,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="29">
         <v>45596</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="29">
         <v>45604</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="29">
         <v>45596</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2823,132 +2823,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="34"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="34"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="34"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="34"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="29">
         <v>45607</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="29">
         <v>45615</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="29">
         <v>45607</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2957,237 +2957,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="28">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="35">
         <v>45616</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="35">
         <v>45616</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="35">
         <v>45616</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="37">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3196,42 +3196,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K54" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="27"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="27"/>
+      <c r="K55" s="34"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="29">
         <v>45617</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="29">
         <v>45618</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="29">
         <v>45618</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3240,39 +3240,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3304,22 +3304,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="35">
         <v>45622</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="35">
         <v>45622</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="35">
         <v>45622</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="37">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3328,50 +3328,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="25">
+      <c r="K60" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="26"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="26"/>
+      <c r="K61" s="33"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="27"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="27"/>
+      <c r="K62" s="34"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3383,6 +3383,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="D11:D27"/>
+    <mergeCell ref="E11:E27"/>
+    <mergeCell ref="F11:F27"/>
+    <mergeCell ref="G11:G27"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="K11:K27"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C63:I63"/>
@@ -3399,49 +3442,6 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="D11:D27"/>
-    <mergeCell ref="E11:E27"/>
-    <mergeCell ref="F11:F27"/>
-    <mergeCell ref="G11:G27"/>
-    <mergeCell ref="H11:H27"/>
-    <mergeCell ref="K11:K27"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="D39:D53"/>
-    <mergeCell ref="E39:E53"/>
-    <mergeCell ref="F39:F53"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="H39:H53"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
   <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,66 +3467,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3564,105 +3564,105 @@
       </c>
     </row>
     <row r="6" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="29">
         <v>45559</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>45562</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="29">
         <v>45559</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="53" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29">
         <v>45560</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="53" t="s">
         <v>89</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="57"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="J10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3681,11 +3681,11 @@
       </c>
     </row>
     <row r="11" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="J11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3704,343 +3704,343 @@
       </c>
     </row>
     <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="35">
         <v>45565</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="54">
         <v>45588</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="35">
         <v>45565</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="41" t="s">
         <v>95</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="28" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="46"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="28">
+      <c r="C14" s="33"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="35">
         <v>45566</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="41" t="s">
         <v>96</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="46"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="3:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28">
+      <c r="C16" s="33"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="35">
         <v>45567</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="41" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="26"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="28">
+      <c r="C18" s="33"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="35">
         <v>45568</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="41" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="46"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="28">
+      <c r="C20" s="33"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="35">
         <v>45569</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="41" t="s">
         <v>110</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="46"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="3:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="28">
+      <c r="C22" s="33"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="35">
         <v>45572</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="41" t="s">
         <v>190</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="46"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="3:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="26"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="28">
+      <c r="C24" s="33"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="35">
         <v>45573</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="41" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="26"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="46"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="26"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="28">
+      <c r="C26" s="33"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="35">
         <v>45574</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="41" t="s">
         <v>100</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="46"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="J28" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -4059,11 +4059,11 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="J29" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -4082,131 +4082,131 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="28">
+      <c r="C30" s="33"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="35">
         <v>45580</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="41" t="s">
         <v>103</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="26"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="46"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="34"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="28">
+      <c r="C32" s="33"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="35">
         <v>45581</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="43" t="s">
         <v>104</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="53"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34" spans="3:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="28">
+      <c r="C34" s="33"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="35">
         <v>45582</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="45" t="s">
         <v>105</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="6">
         <v>4</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="60"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="62"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="3">
         <v>45583</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="J36" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="6">
         <v>6</v>
       </c>
@@ -4225,51 +4225,51 @@
       </c>
     </row>
     <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="28">
+      <c r="C37" s="33"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="35">
         <v>45586</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="41" t="s">
         <v>107</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="46"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="6">
         <v>3</v>
       </c>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" spans="3:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="3">
         <v>45580</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="J39" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K39" s="34"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="6">
         <v>6</v>
       </c>
@@ -4288,507 +4288,507 @@
       </c>
     </row>
     <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="36">
+      <c r="C40" s="33"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="29">
         <v>45588</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="44" t="s">
         <v>109</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="27"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="54"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
     </row>
     <row r="42" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="29">
         <v>45590</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="29">
         <v>45594</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="29">
         <v>45590</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" s="41" t="s">
         <v>123</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="28" t="s">
         <v>126</v>
       </c>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="46"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="28"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="43"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="3:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="46"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K44" s="34"/>
+        <v>244</v>
+      </c>
+      <c r="K44" s="28"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="43"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29">
         <v>45593</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="41" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="28"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="46"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="28"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="43"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="46"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="28"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="43"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29">
         <v>45594</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="41" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="28"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="46"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="28"/>
       <c r="L50" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="29">
         <v>45596</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="29">
         <v>45604</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="29">
         <v>45596</v>
       </c>
-      <c r="I51" s="46" t="s">
+      <c r="I51" s="41" t="s">
         <v>128</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="K51" s="34" t="s">
+      <c r="K51" s="28" t="s">
         <v>136</v>
       </c>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="34">
+      <c r="M51" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="46"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="28"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="34"/>
+      <c r="M52" s="28"/>
     </row>
     <row r="53" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="46"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="28"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="34"/>
+      <c r="M53" s="28"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="46"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="28"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="34"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="46"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="28"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="34"/>
+      <c r="M55" s="28"/>
     </row>
     <row r="56" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="46"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="K56" s="34"/>
+        <v>245</v>
+      </c>
+      <c r="K56" s="28"/>
       <c r="L56" s="6">
         <v>1</v>
       </c>
-      <c r="M56" s="34"/>
+      <c r="M56" s="28"/>
     </row>
     <row r="57" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36">
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="29">
         <v>45602</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="41" t="s">
         <v>129</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="28"/>
       <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="48"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="28"/>
       <c r="L58" s="6">
         <v>1</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="28"/>
     </row>
     <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="48" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="57" t="s">
         <v>131</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="34"/>
+      <c r="K59" s="28"/>
       <c r="L59" s="6">
         <v>2</v>
       </c>
-      <c r="M59" s="34"/>
+      <c r="M59" s="28"/>
     </row>
     <row r="60" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="34"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="48"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K60" s="34"/>
+      <c r="K60" s="28"/>
       <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M60" s="34"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="34"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36">
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="29">
         <v>45603</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="41" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="K61" s="34"/>
+      <c r="K61" s="28"/>
       <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C62" s="34"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="48"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="57"/>
       <c r="J62" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="28"/>
       <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M62" s="34"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="34"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="48" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="57" t="s">
         <v>134</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="34"/>
+      <c r="K63" s="28"/>
       <c r="L63" s="6">
         <v>2</v>
       </c>
-      <c r="M63" s="34"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C64" s="34"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="48"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="57"/>
       <c r="J64" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="K64" s="34"/>
+      <c r="K64" s="28"/>
       <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M64" s="34"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C65" s="34"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36">
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="29">
         <v>45604</v>
       </c>
       <c r="I65" s="20" t="s">
@@ -4797,67 +4797,67 @@
       <c r="J65" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="34"/>
+      <c r="K65" s="28"/>
       <c r="L65" s="6">
         <v>3</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="34"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="46" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="41" t="s">
         <v>135</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K66" s="34"/>
+      <c r="K66" s="28"/>
       <c r="L66" s="6">
         <v>2</v>
       </c>
-      <c r="M66" s="34"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C67" s="34"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="48"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K67" s="34"/>
+      <c r="K67" s="28"/>
       <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="M67" s="34"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="29">
         <v>45607</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="29">
         <v>45615</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="29">
         <v>45607</v>
       </c>
       <c r="I68" s="22" t="s">
@@ -4866,260 +4866,260 @@
       <c r="J68" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="28" t="s">
         <v>169</v>
       </c>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="34">
+      <c r="M68" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="34"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="46" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="41" t="s">
         <v>140</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K69" s="34"/>
+      <c r="K69" s="28"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="34"/>
+      <c r="M69" s="28"/>
     </row>
     <row r="70" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C70" s="34"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="46"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="28"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="34"/>
+      <c r="M70" s="28"/>
     </row>
     <row r="71" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C71" s="34"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36">
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="29">
         <v>45608</v>
       </c>
-      <c r="I71" s="53" t="s">
+      <c r="I71" s="43" t="s">
         <v>139</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="K71" s="34"/>
+      <c r="K71" s="28"/>
       <c r="L71" s="6">
         <v>2</v>
       </c>
-      <c r="M71" s="34">
+      <c r="M71" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C72" s="34"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="53"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K72" s="34"/>
+      <c r="K72" s="28"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="34"/>
+      <c r="M72" s="28"/>
     </row>
     <row r="73" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="34"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="54" t="s">
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="44" t="s">
         <v>138</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="34"/>
+      <c r="K73" s="28"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="34"/>
+      <c r="M73" s="28"/>
     </row>
     <row r="74" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="34"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="54"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="44"/>
       <c r="J74" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="28"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="34"/>
+      <c r="M74" s="28"/>
     </row>
     <row r="75" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C75" s="34"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="54"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="44"/>
       <c r="J75" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K75" s="34"/>
+      <c r="K75" s="28"/>
       <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="M75" s="34"/>
+      <c r="M75" s="28"/>
     </row>
     <row r="76" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="34"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36">
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="29">
         <v>45609</v>
       </c>
-      <c r="I76" s="46" t="s">
+      <c r="I76" s="41" t="s">
         <v>137</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="K76" s="34"/>
-      <c r="L76" s="43">
+      <c r="K76" s="28"/>
+      <c r="L76" s="42">
         <v>2</v>
       </c>
-      <c r="M76" s="34">
+      <c r="M76" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="34"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="46"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="41"/>
       <c r="J77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K77" s="34"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="34"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="28"/>
     </row>
     <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="34"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="46"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="41"/>
       <c r="J78" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="34"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="28"/>
     </row>
     <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="34"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="20" t="s">
         <v>236</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K79" s="34"/>
+      <c r="K79" s="28"/>
       <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="M79" s="34"/>
+      <c r="M79" s="28"/>
     </row>
     <row r="80" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="34"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="46" t="s">
-        <v>247</v>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K80" s="34"/>
+      <c r="K80" s="28"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="34"/>
+      <c r="M80" s="28"/>
     </row>
     <row r="81" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="34"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="46"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="41"/>
       <c r="J81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K81" s="34"/>
+      <c r="K81" s="28"/>
       <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="M81" s="34"/>
+      <c r="M81" s="28"/>
     </row>
     <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="34"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="29">
         <v>45610</v>
       </c>
       <c r="I82" s="20" t="s">
@@ -5128,57 +5128,57 @@
       <c r="J82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K82" s="34"/>
+      <c r="K82" s="28"/>
       <c r="L82" s="6">
         <v>3</v>
       </c>
-      <c r="M82" s="34">
+      <c r="M82" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="34"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="46" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="41" t="s">
         <v>147</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="K83" s="34"/>
+      <c r="K83" s="28"/>
       <c r="L83" s="6">
         <v>2</v>
       </c>
-      <c r="M83" s="34"/>
+      <c r="M83" s="28"/>
     </row>
     <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" s="34"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="46"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="41"/>
       <c r="J84" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K84" s="34"/>
+      <c r="K84" s="28"/>
       <c r="L84" s="6">
         <v>1</v>
       </c>
-      <c r="M84" s="34"/>
+      <c r="M84" s="28"/>
     </row>
     <row r="85" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C85" s="34"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="36">
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="29">
         <v>45611</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -5187,57 +5187,57 @@
       <c r="J85" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K85" s="34"/>
+      <c r="K85" s="28"/>
       <c r="L85" s="6">
         <v>3</v>
       </c>
-      <c r="M85" s="34">
+      <c r="M85" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C86" s="34"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="46" t="s">
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="41" t="s">
         <v>149</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K86" s="34"/>
+      <c r="K86" s="28"/>
       <c r="L86" s="6">
         <v>2</v>
       </c>
-      <c r="M86" s="34"/>
+      <c r="M86" s="28"/>
     </row>
     <row r="87" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="34"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="46"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="41"/>
       <c r="J87" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="K87" s="34"/>
+      <c r="K87" s="28"/>
       <c r="L87" s="6">
         <v>1</v>
       </c>
-      <c r="M87" s="34"/>
+      <c r="M87" s="28"/>
     </row>
     <row r="88" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C88" s="34"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36">
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="29">
         <v>45614</v>
       </c>
       <c r="I88" s="20" t="s">
@@ -5246,40 +5246,40 @@
       <c r="J88" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="K88" s="34"/>
+      <c r="K88" s="28"/>
       <c r="L88" s="6">
         <v>4</v>
       </c>
-      <c r="M88" s="34">
+      <c r="M88" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C89" s="34"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="20" t="s">
         <v>170</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K89" s="34"/>
+      <c r="K89" s="28"/>
       <c r="L89" s="6">
         <v>2</v>
       </c>
-      <c r="M89" s="34"/>
+      <c r="M89" s="28"/>
     </row>
     <row r="90" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C90" s="34"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36">
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="29">
         <v>45615</v>
       </c>
       <c r="I90" s="20" t="s">
@@ -5288,213 +5288,213 @@
       <c r="J90" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K90" s="34"/>
+      <c r="K90" s="28"/>
       <c r="L90" s="6">
         <v>4</v>
       </c>
-      <c r="M90" s="34">
+      <c r="M90" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C91" s="34"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="20" t="s">
         <v>152</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K91" s="34"/>
+      <c r="K91" s="28"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="34"/>
+      <c r="M91" s="28"/>
     </row>
     <row r="92" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="29">
         <v>45616</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="29">
         <v>45616</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H92" s="29">
         <v>45616</v>
       </c>
-      <c r="I92" s="47" t="s">
+      <c r="I92" s="60" t="s">
         <v>158</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K92" s="43"/>
+      <c r="K92" s="42"/>
       <c r="L92" s="6">
         <v>2</v>
       </c>
-      <c r="M92" s="34">
+      <c r="M92" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="34"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="47"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="60"/>
       <c r="J93" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K93" s="43"/>
+      <c r="K93" s="42"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="34"/>
+      <c r="M93" s="28"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="34"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="47" t="s">
-        <v>241</v>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="60" t="s">
+        <v>249</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="K94" s="43"/>
+      <c r="K94" s="42"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="34"/>
+      <c r="M94" s="28"/>
     </row>
     <row r="95" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="34"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="47"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K95" s="43"/>
+      <c r="K95" s="42"/>
       <c r="L95" s="6">
         <v>1</v>
       </c>
-      <c r="M95" s="34"/>
+      <c r="M95" s="28"/>
     </row>
     <row r="96" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="29">
         <v>45617</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="29">
         <v>45618</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H96" s="36">
+      <c r="H96" s="29">
         <v>45617</v>
       </c>
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="58" t="s">
         <v>173</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K96" s="25" t="s">
+      <c r="K96" s="32" t="s">
         <v>180</v>
       </c>
       <c r="L96" s="6">
         <v>2</v>
       </c>
-      <c r="M96" s="25">
+      <c r="M96" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C97" s="34"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="44"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="58"/>
       <c r="J97" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K97" s="26"/>
+      <c r="K97" s="33"/>
       <c r="L97" s="6">
         <v>1</v>
       </c>
-      <c r="M97" s="26"/>
+      <c r="M97" s="33"/>
     </row>
     <row r="98" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="34"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="44" t="s">
+      <c r="C98" s="28"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="58" t="s">
         <v>179</v>
       </c>
       <c r="J98" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="K98" s="26"/>
+      <c r="K98" s="33"/>
       <c r="L98" s="6">
         <v>2</v>
       </c>
-      <c r="M98" s="26"/>
+      <c r="M98" s="33"/>
     </row>
     <row r="99" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="34"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="45"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K99" s="26"/>
+      <c r="K99" s="33"/>
       <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="M99" s="27"/>
+      <c r="M99" s="34"/>
     </row>
     <row r="100" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="34"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
       <c r="H100" s="11">
         <v>45618</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="J100" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="K100" s="26"/>
+      <c r="K100" s="33"/>
       <c r="L100" s="6">
         <v>6</v>
       </c>
@@ -5513,140 +5513,140 @@
       </c>
     </row>
     <row r="101" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="35">
         <v>45621</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="35">
         <v>45621</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G101" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H101" s="28">
+      <c r="H101" s="35">
         <v>45621</v>
       </c>
-      <c r="I101" s="41" t="s">
+      <c r="I101" s="61" t="s">
         <v>183</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K101" s="25" t="s">
+      <c r="K101" s="32" t="s">
         <v>186</v>
       </c>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="25">
+      <c r="M101" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="27"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="42"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K102" s="27"/>
+      <c r="K102" s="34"/>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="27"/>
+      <c r="M102" s="34"/>
     </row>
     <row r="103" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D103" s="29">
         <v>45622</v>
       </c>
-      <c r="E103" s="36">
+      <c r="E103" s="29">
         <v>45622</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G103" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H103" s="28">
+      <c r="H103" s="35">
         <v>45622</v>
       </c>
       <c r="I103" s="24" t="s">
         <v>184</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K103" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K103" s="32" t="s">
         <v>187</v>
       </c>
       <c r="L103" s="2">
         <v>3</v>
       </c>
-      <c r="M103" s="34">
+      <c r="M103" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C104" s="34"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="31"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="38"/>
       <c r="I104" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J104" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="J104" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="K104" s="26"/>
+      <c r="K104" s="33"/>
       <c r="L104" s="2">
         <v>1</v>
       </c>
-      <c r="M104" s="34"/>
+      <c r="M104" s="28"/>
     </row>
     <row r="105" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C105" s="34"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="32"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="39"/>
       <c r="I105" s="24" t="s">
         <v>185</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="K105" s="27"/>
+        <v>247</v>
+      </c>
+      <c r="K105" s="34"/>
       <c r="L105" s="2">
         <v>2</v>
       </c>
-      <c r="M105" s="34"/>
+      <c r="M105" s="28"/>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12">
@@ -5660,6 +5660,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M96:M99"/>
+    <mergeCell ref="K96:K100"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="K68:K91"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="C51:C67"/>
+    <mergeCell ref="D51:D67"/>
+    <mergeCell ref="E51:E67"/>
+    <mergeCell ref="F51:F67"/>
+    <mergeCell ref="G51:G67"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K51:K67"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="K42:K50"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="C12:C41"/>
+    <mergeCell ref="D12:D41"/>
+    <mergeCell ref="E12:E41"/>
+    <mergeCell ref="F12:F41"/>
+    <mergeCell ref="G12:G41"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="D68:D91"/>
+    <mergeCell ref="E68:E91"/>
     <mergeCell ref="M92:M95"/>
     <mergeCell ref="G92:G95"/>
     <mergeCell ref="I12:I13"/>
@@ -5684,145 +5823,6 @@
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="M34:M35"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="F42:F50"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="C68:C91"/>
-    <mergeCell ref="D68:D91"/>
-    <mergeCell ref="E68:E91"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C12:C41"/>
-    <mergeCell ref="D12:D41"/>
-    <mergeCell ref="E12:E41"/>
-    <mergeCell ref="F12:F41"/>
-    <mergeCell ref="G12:G41"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M51:M56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="K42:K50"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C51:C67"/>
-    <mergeCell ref="D51:D67"/>
-    <mergeCell ref="E51:E67"/>
-    <mergeCell ref="F51:F67"/>
-    <mergeCell ref="G51:G67"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="K51:K67"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="M96:M99"/>
-    <mergeCell ref="K96:K100"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="M71:M75"/>
-    <mergeCell ref="K68:K91"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="M103:M105"/>
   </mergeCells>
   <conditionalFormatting sqref="I42 I45 I48 J53:J55">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD28DA-8DEF-43E3-A773-BD8B2DA498AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49656CEB-8841-45F5-BF24-C5A2D2E72300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -1857,6 +1857,45 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1866,49 +1905,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,6 +1947,18 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,48 +1969,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2320,52 +2320,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2397,22 +2397,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="36">
         <v>45559</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="36">
         <v>45562</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="36">
         <v>45559</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2421,72 +2421,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="36">
         <v>45565</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="37">
         <v>45588</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="36">
         <v>45565</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2495,267 +2495,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="34">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="28"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="36">
         <v>45590</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="36">
         <v>45594</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="36">
         <v>45590</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2764,57 +2764,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="28"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="36">
         <v>45596</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="36">
         <v>45604</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="36">
         <v>45596</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2823,132 +2823,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="28"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="36">
         <v>45607</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="36">
         <v>45615</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="36">
         <v>45607</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2957,237 +2957,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="34">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="28"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="28"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="28"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="28"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="28"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="28"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="28"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="28"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="28">
         <v>45616</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="28">
         <v>45616</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="28">
         <v>45616</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3196,42 +3196,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="27"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="36">
         <v>45617</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="36">
         <v>45618</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="36">
         <v>45618</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3240,39 +3240,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="28"/>
+      <c r="K57" s="34"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="28"/>
+      <c r="K58" s="34"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3304,22 +3304,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="28">
         <v>45622</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="28">
         <v>45622</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="28">
         <v>45622</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="37">
+      <c r="H60" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3328,50 +3328,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="32">
+      <c r="K60" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="33"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="33"/>
+      <c r="K61" s="26"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="34"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="27"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3383,49 +3383,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="D39:D53"/>
-    <mergeCell ref="E39:E53"/>
-    <mergeCell ref="F39:F53"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="H39:H53"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="D11:D27"/>
-    <mergeCell ref="E11:E27"/>
-    <mergeCell ref="F11:F27"/>
-    <mergeCell ref="G11:G27"/>
-    <mergeCell ref="H11:H27"/>
-    <mergeCell ref="K11:K27"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C63:I63"/>
@@ -3442,6 +3399,49 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="D11:D27"/>
+    <mergeCell ref="E11:E27"/>
+    <mergeCell ref="F11:F27"/>
+    <mergeCell ref="G11:G27"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="K11:K27"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
   <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="H103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3467,66 +3467,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3564,105 +3564,105 @@
       </c>
     </row>
     <row r="6" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="36">
         <v>45559</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>45562</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="36">
         <v>45559</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="57" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="34" t="s">
         <v>122</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="43">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="53"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29">
+      <c r="C8" s="34"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36">
         <v>45560</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="57" t="s">
         <v>89</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="J10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3681,11 +3681,11 @@
       </c>
     </row>
     <row r="11" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="J11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="28"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3704,343 +3704,343 @@
       </c>
     </row>
     <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="28">
         <v>45565</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="49">
         <v>45588</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="28">
         <v>45565</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="46" t="s">
         <v>95</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="34" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="33"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="33"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="35">
+      <c r="C14" s="26"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="28">
         <v>45566</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="46" t="s">
         <v>96</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="33"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="28"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="42"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="3:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="33"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="35">
+      <c r="C16" s="26"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="28">
         <v>45567</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="46" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="33"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="42"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="33"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="35">
+      <c r="C18" s="26"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="28">
         <v>45568</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="46" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="33"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="33"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="35">
+      <c r="C20" s="26"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="28">
         <v>45569</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="46" t="s">
         <v>110</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="33"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="41"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="28"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="3:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="33"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="35">
+      <c r="C22" s="26"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="28">
         <v>45572</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="46" t="s">
         <v>190</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="K22" s="28"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="33"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="41"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="28"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="3:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="33"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="35">
+      <c r="C24" s="26"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="28">
         <v>45573</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="46" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K24" s="28"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="33"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="41"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="28"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="42"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="33"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="35">
+      <c r="C26" s="26"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="28">
         <v>45574</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="46" t="s">
         <v>100</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="28"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="33"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="41"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="28"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="42"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="33"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="J28" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="28"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -4059,11 +4059,11 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="J29" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="28"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -4082,131 +4082,131 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="33"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="35">
+      <c r="C30" s="26"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="28">
         <v>45580</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="46" t="s">
         <v>103</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="28"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="33"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="41"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="28"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="42"/>
+      <c r="M31" s="43"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="33"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="35">
+      <c r="C32" s="26"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28">
         <v>45581</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="53" t="s">
         <v>104</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="33"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="43"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K33" s="28"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="42"/>
+      <c r="M33" s="43"/>
     </row>
     <row r="34" spans="3:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="33"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="35">
+      <c r="C34" s="26"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="28">
         <v>45582</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="59" t="s">
         <v>105</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="6">
         <v>4</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="33"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="46"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="60"/>
       <c r="J35" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="48"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="33"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="3">
         <v>45583</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="J36" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="6">
         <v>6</v>
       </c>
@@ -4225,53 +4225,53 @@
       </c>
     </row>
     <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="33"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="35">
+      <c r="C37" s="26"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="28">
         <v>45586</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="46" t="s">
         <v>107</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="28"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="33"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="6">
         <v>3</v>
       </c>
-      <c r="M38" s="42"/>
+      <c r="M38" s="43"/>
     </row>
     <row r="39" spans="3:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="33"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
       <c r="H39" s="3">
-        <v>45580</v>
+        <v>45587</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>108</v>
@@ -4279,7 +4279,7 @@
       <c r="J39" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K39" s="28"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="6">
         <v>6</v>
       </c>
@@ -4288,507 +4288,507 @@
       </c>
     </row>
     <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="33"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="29">
+      <c r="C40" s="26"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="36">
         <v>45588</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="54" t="s">
         <v>109</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="44"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K41" s="28"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="42"/>
+      <c r="M41" s="43"/>
     </row>
     <row r="42" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="36">
         <v>45590</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="36">
         <v>45594</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="36">
         <v>45590</v>
       </c>
-      <c r="I42" s="41" t="s">
+      <c r="I42" s="46" t="s">
         <v>123</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="34" t="s">
         <v>126</v>
       </c>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="41"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="42"/>
+      <c r="M43" s="43"/>
     </row>
     <row r="44" spans="3:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="41"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="28"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="42"/>
+      <c r="M44" s="43"/>
     </row>
     <row r="45" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="29">
+      <c r="C45" s="34"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36">
         <v>45593</v>
       </c>
-      <c r="I45" s="41" t="s">
+      <c r="I45" s="46" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="28"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="41"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="K46" s="28"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="42"/>
+      <c r="M46" s="43"/>
     </row>
     <row r="47" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="41"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="K47" s="28"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="42"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="29">
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36">
         <v>45594</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="46" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K48" s="28"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="41"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K49" s="28"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="42"/>
+      <c r="M49" s="43"/>
     </row>
     <row r="50" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="41"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="K50" s="28"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="42"/>
+      <c r="M50" s="43"/>
     </row>
     <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="36">
         <v>45596</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="36">
         <v>45604</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="36">
         <v>45596</v>
       </c>
-      <c r="I51" s="41" t="s">
+      <c r="I51" s="46" t="s">
         <v>128</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="34" t="s">
         <v>136</v>
       </c>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="28">
+      <c r="M51" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="41"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="K52" s="28"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="28"/>
+      <c r="M52" s="34"/>
     </row>
     <row r="53" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="41"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="28"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="28"/>
+      <c r="M53" s="34"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="41"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K54" s="28"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="28"/>
+      <c r="M54" s="34"/>
     </row>
     <row r="55" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="41"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K55" s="28"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="28"/>
+      <c r="M55" s="34"/>
     </row>
     <row r="56" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="41"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="K56" s="28"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="6">
         <v>1</v>
       </c>
-      <c r="M56" s="28"/>
+      <c r="M56" s="34"/>
     </row>
     <row r="57" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="29">
+      <c r="C57" s="34"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="36">
         <v>45602</v>
       </c>
-      <c r="I57" s="41" t="s">
+      <c r="I57" s="46" t="s">
         <v>129</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="28"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M57" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="57"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="48"/>
       <c r="J58" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="28"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="6">
         <v>1</v>
       </c>
-      <c r="M58" s="28"/>
+      <c r="M58" s="34"/>
     </row>
     <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="57" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="48" t="s">
         <v>131</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="28"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="6">
         <v>2</v>
       </c>
-      <c r="M59" s="28"/>
+      <c r="M59" s="34"/>
     </row>
     <row r="60" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="57"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="48"/>
       <c r="J60" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K60" s="28"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M60" s="28"/>
+      <c r="M60" s="34"/>
     </row>
     <row r="61" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="29">
+      <c r="C61" s="34"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="36">
         <v>45603</v>
       </c>
-      <c r="I61" s="41" t="s">
+      <c r="I61" s="46" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="K61" s="28"/>
+      <c r="K61" s="34"/>
       <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M61" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="57"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="48"/>
       <c r="J62" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="K62" s="28"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M62" s="28"/>
+      <c r="M62" s="34"/>
     </row>
     <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="57" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="48" t="s">
         <v>134</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="28"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="6">
         <v>2</v>
       </c>
-      <c r="M63" s="28"/>
+      <c r="M63" s="34"/>
     </row>
     <row r="64" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="57"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="48"/>
       <c r="J64" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="K64" s="28"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M64" s="28"/>
+      <c r="M64" s="34"/>
     </row>
     <row r="65" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="29">
+      <c r="C65" s="34"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="36">
         <v>45604</v>
       </c>
       <c r="I65" s="20" t="s">
@@ -4797,67 +4797,67 @@
       <c r="J65" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="28"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="6">
         <v>3</v>
       </c>
-      <c r="M65" s="28">
+      <c r="M65" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="41" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="46" t="s">
         <v>135</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K66" s="28"/>
+      <c r="K66" s="34"/>
       <c r="L66" s="6">
         <v>2</v>
       </c>
-      <c r="M66" s="28"/>
+      <c r="M66" s="34"/>
     </row>
     <row r="67" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="48"/>
       <c r="J67" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K67" s="28"/>
+      <c r="K67" s="34"/>
       <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="M67" s="28"/>
+      <c r="M67" s="34"/>
     </row>
     <row r="68" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="36">
         <v>45607</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="36">
         <v>45615</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F68" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H68" s="29">
+      <c r="H68" s="36">
         <v>45607</v>
       </c>
       <c r="I68" s="22" t="s">
@@ -4866,260 +4866,260 @@
       <c r="J68" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K68" s="28" t="s">
+      <c r="K68" s="34" t="s">
         <v>169</v>
       </c>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M68" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="41" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="46" t="s">
         <v>140</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K69" s="28"/>
+      <c r="K69" s="34"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="28"/>
+      <c r="M69" s="34"/>
     </row>
     <row r="70" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="41"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K70" s="28"/>
+      <c r="K70" s="34"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="28"/>
+      <c r="M70" s="34"/>
     </row>
     <row r="71" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="29">
+      <c r="C71" s="34"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="36">
         <v>45608</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="53" t="s">
         <v>139</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="K71" s="28"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="6">
         <v>2</v>
       </c>
-      <c r="M71" s="28">
+      <c r="M71" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="43"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="53"/>
       <c r="J72" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K72" s="28"/>
+      <c r="K72" s="34"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="28"/>
+      <c r="M72" s="34"/>
     </row>
     <row r="73" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="44" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="54" t="s">
         <v>138</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="28"/>
+      <c r="K73" s="34"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="28"/>
+      <c r="M73" s="34"/>
     </row>
     <row r="74" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="44"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K74" s="28"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="28"/>
+      <c r="M74" s="34"/>
     </row>
     <row r="75" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="44"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="54"/>
       <c r="J75" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K75" s="28"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="M75" s="28"/>
+      <c r="M75" s="34"/>
     </row>
     <row r="76" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="29">
+      <c r="C76" s="34"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36">
         <v>45609</v>
       </c>
-      <c r="I76" s="41" t="s">
+      <c r="I76" s="46" t="s">
         <v>137</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="K76" s="28"/>
-      <c r="L76" s="42">
+      <c r="K76" s="34"/>
+      <c r="L76" s="43">
         <v>2</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M76" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="41"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="46"/>
       <c r="J77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K77" s="28"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="28"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="34"/>
     </row>
     <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="41"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="46"/>
       <c r="J78" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K78" s="28"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="28"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="34"/>
     </row>
     <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="29"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="20" t="s">
         <v>236</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K79" s="28"/>
+      <c r="K79" s="34"/>
       <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="M79" s="28"/>
+      <c r="M79" s="34"/>
     </row>
     <row r="80" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="41" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="46" t="s">
         <v>246</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K80" s="28"/>
+      <c r="K80" s="34"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="28"/>
+      <c r="M80" s="34"/>
     </row>
     <row r="81" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="41"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="46"/>
       <c r="J81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K81" s="28"/>
+      <c r="K81" s="34"/>
       <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="M81" s="28"/>
+      <c r="M81" s="34"/>
     </row>
     <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="29">
+      <c r="C82" s="34"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36">
         <v>45610</v>
       </c>
       <c r="I82" s="20" t="s">
@@ -5128,57 +5128,57 @@
       <c r="J82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K82" s="28"/>
+      <c r="K82" s="34"/>
       <c r="L82" s="6">
         <v>3</v>
       </c>
-      <c r="M82" s="28">
+      <c r="M82" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="41" t="s">
+      <c r="C83" s="34"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="46" t="s">
         <v>147</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="K83" s="28"/>
+      <c r="K83" s="34"/>
       <c r="L83" s="6">
         <v>2</v>
       </c>
-      <c r="M83" s="28"/>
+      <c r="M83" s="34"/>
     </row>
     <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="41"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="46"/>
       <c r="J84" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K84" s="28"/>
+      <c r="K84" s="34"/>
       <c r="L84" s="6">
         <v>1</v>
       </c>
-      <c r="M84" s="28"/>
+      <c r="M84" s="34"/>
     </row>
     <row r="85" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29">
+      <c r="C85" s="34"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="36">
         <v>45611</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -5187,57 +5187,57 @@
       <c r="J85" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K85" s="28"/>
+      <c r="K85" s="34"/>
       <c r="L85" s="6">
         <v>3</v>
       </c>
-      <c r="M85" s="28">
+      <c r="M85" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="41" t="s">
+      <c r="C86" s="34"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="46" t="s">
         <v>149</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K86" s="28"/>
+      <c r="K86" s="34"/>
       <c r="L86" s="6">
         <v>2</v>
       </c>
-      <c r="M86" s="28"/>
+      <c r="M86" s="34"/>
     </row>
     <row r="87" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="41"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="K87" s="28"/>
+      <c r="K87" s="34"/>
       <c r="L87" s="6">
         <v>1</v>
       </c>
-      <c r="M87" s="28"/>
+      <c r="M87" s="34"/>
     </row>
     <row r="88" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="29">
+      <c r="C88" s="34"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="36">
         <v>45614</v>
       </c>
       <c r="I88" s="20" t="s">
@@ -5246,40 +5246,40 @@
       <c r="J88" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="K88" s="28"/>
+      <c r="K88" s="34"/>
       <c r="L88" s="6">
         <v>4</v>
       </c>
-      <c r="M88" s="28">
+      <c r="M88" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="29"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="20" t="s">
         <v>170</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K89" s="28"/>
+      <c r="K89" s="34"/>
       <c r="L89" s="6">
         <v>2</v>
       </c>
-      <c r="M89" s="28"/>
+      <c r="M89" s="34"/>
     </row>
     <row r="90" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="29">
+      <c r="C90" s="34"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36">
         <v>45615</v>
       </c>
       <c r="I90" s="20" t="s">
@@ -5288,213 +5288,213 @@
       <c r="J90" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K90" s="28"/>
+      <c r="K90" s="34"/>
       <c r="L90" s="6">
         <v>4</v>
       </c>
-      <c r="M90" s="28">
+      <c r="M90" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="29"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="20" t="s">
         <v>152</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K91" s="28"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="28"/>
+      <c r="M91" s="34"/>
     </row>
     <row r="92" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="36">
         <v>45616</v>
       </c>
-      <c r="E92" s="29">
+      <c r="E92" s="36">
         <v>45616</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G92" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H92" s="29">
+      <c r="H92" s="36">
         <v>45616</v>
       </c>
-      <c r="I92" s="60" t="s">
+      <c r="I92" s="47" t="s">
         <v>158</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K92" s="42"/>
+      <c r="K92" s="43"/>
       <c r="L92" s="6">
         <v>2</v>
       </c>
-      <c r="M92" s="28">
+      <c r="M92" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="60"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="47"/>
       <c r="J93" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K93" s="42"/>
+      <c r="K93" s="43"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="28"/>
+      <c r="M93" s="34"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="60" t="s">
+      <c r="C94" s="34"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="47" t="s">
         <v>249</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="K94" s="42"/>
+      <c r="K94" s="43"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="28"/>
+      <c r="M94" s="34"/>
     </row>
     <row r="95" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="60"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="47"/>
       <c r="J95" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K95" s="42"/>
+      <c r="K95" s="43"/>
       <c r="L95" s="6">
         <v>1</v>
       </c>
-      <c r="M95" s="28"/>
+      <c r="M95" s="34"/>
     </row>
     <row r="96" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="36">
         <v>45617</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="36">
         <v>45618</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F96" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H96" s="29">
+      <c r="H96" s="36">
         <v>45617</v>
       </c>
-      <c r="I96" s="58" t="s">
+      <c r="I96" s="44" t="s">
         <v>173</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K96" s="32" t="s">
+      <c r="K96" s="25" t="s">
         <v>180</v>
       </c>
       <c r="L96" s="6">
         <v>2</v>
       </c>
-      <c r="M96" s="32">
+      <c r="M96" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="58"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="44"/>
       <c r="J97" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K97" s="33"/>
+      <c r="K97" s="26"/>
       <c r="L97" s="6">
         <v>1</v>
       </c>
-      <c r="M97" s="33"/>
+      <c r="M97" s="26"/>
     </row>
     <row r="98" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="58" t="s">
+      <c r="C98" s="34"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="44" t="s">
         <v>179</v>
       </c>
       <c r="J98" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="K98" s="33"/>
+      <c r="K98" s="26"/>
       <c r="L98" s="6">
         <v>2</v>
       </c>
-      <c r="M98" s="33"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="59"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="45"/>
       <c r="J99" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K99" s="33"/>
+      <c r="K99" s="26"/>
       <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="M99" s="34"/>
+      <c r="M99" s="27"/>
     </row>
     <row r="100" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="11">
         <v>45618</v>
       </c>
@@ -5504,7 +5504,7 @@
       <c r="J100" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="K100" s="33"/>
+      <c r="K100" s="26"/>
       <c r="L100" s="6">
         <v>6</v>
       </c>
@@ -5513,74 +5513,74 @@
       </c>
     </row>
     <row r="101" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="32" t="s">
+      <c r="C101" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="35">
+      <c r="D101" s="28">
         <v>45621</v>
       </c>
-      <c r="E101" s="35">
+      <c r="E101" s="28">
         <v>45621</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G101" s="37">
+      <c r="G101" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H101" s="35">
+      <c r="H101" s="28">
         <v>45621</v>
       </c>
-      <c r="I101" s="61" t="s">
+      <c r="I101" s="41" t="s">
         <v>183</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K101" s="32" t="s">
+      <c r="K101" s="25" t="s">
         <v>186</v>
       </c>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="32">
+      <c r="M101" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="34"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="62"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="42"/>
       <c r="J102" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K102" s="34"/>
+      <c r="K102" s="27"/>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="34"/>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="36">
         <v>45622</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="36">
         <v>45622</v>
       </c>
-      <c r="F103" s="30">
+      <c r="F103" s="35">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G103" s="30">
+      <c r="G103" s="35">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H103" s="35">
+      <c r="H103" s="28">
         <v>45622</v>
       </c>
       <c r="I103" s="24" t="s">
@@ -5589,64 +5589,64 @@
       <c r="J103" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K103" s="32" t="s">
+      <c r="K103" s="25" t="s">
         <v>187</v>
       </c>
       <c r="L103" s="2">
         <v>3</v>
       </c>
-      <c r="M103" s="28">
+      <c r="M103" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="38"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="24" t="s">
         <v>242</v>
       </c>
       <c r="J104" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="K104" s="33"/>
+      <c r="K104" s="26"/>
       <c r="L104" s="2">
         <v>1</v>
       </c>
-      <c r="M104" s="28"/>
+      <c r="M104" s="34"/>
     </row>
     <row r="105" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="39"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="32"/>
       <c r="I105" s="24" t="s">
         <v>185</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="K105" s="34"/>
+      <c r="K105" s="27"/>
       <c r="L105" s="2">
         <v>2</v>
       </c>
-      <c r="M105" s="28"/>
+      <c r="M105" s="34"/>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="49"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="58"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12">
@@ -5660,18 +5660,133 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M92:M95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K41"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F68:F91"/>
+    <mergeCell ref="G68:G91"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="D68:D91"/>
+    <mergeCell ref="E68:E91"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C12:C41"/>
+    <mergeCell ref="D12:D41"/>
+    <mergeCell ref="E12:E41"/>
+    <mergeCell ref="F12:F41"/>
+    <mergeCell ref="G12:G41"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="K42:K50"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C51:C67"/>
+    <mergeCell ref="D51:D67"/>
+    <mergeCell ref="E51:E67"/>
+    <mergeCell ref="F51:F67"/>
+    <mergeCell ref="G51:G67"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K51:K67"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I66:I67"/>
     <mergeCell ref="M96:M99"/>
     <mergeCell ref="K96:K100"/>
     <mergeCell ref="H26:H27"/>
@@ -5696,133 +5811,18 @@
     <mergeCell ref="I76:I78"/>
     <mergeCell ref="L76:L78"/>
     <mergeCell ref="I80:I81"/>
-    <mergeCell ref="C51:C67"/>
-    <mergeCell ref="D51:D67"/>
-    <mergeCell ref="E51:E67"/>
-    <mergeCell ref="F51:F67"/>
-    <mergeCell ref="G51:G67"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="K51:K67"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M51:M56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="K42:K50"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="C12:C41"/>
-    <mergeCell ref="D12:D41"/>
-    <mergeCell ref="E12:E41"/>
-    <mergeCell ref="F12:F41"/>
-    <mergeCell ref="G12:G41"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="F42:F50"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="C68:C91"/>
-    <mergeCell ref="D68:D91"/>
-    <mergeCell ref="E68:E91"/>
-    <mergeCell ref="M92:M95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K41"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F68:F91"/>
-    <mergeCell ref="G68:G91"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="H71:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="M103:M105"/>
   </mergeCells>
   <conditionalFormatting sqref="I42 I45 I48 J53:J55">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49656CEB-8841-45F5-BF24-C5A2D2E72300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD2F6B-06EC-48D4-998B-04A70CFD659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" activeTab="1" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -1857,6 +1857,27 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,91 +1905,70 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2320,52 +2320,52 @@
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -2397,22 +2397,22 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="29">
         <v>45559</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="29">
         <v>45562</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="29">
         <v>45559</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2421,72 +2421,72 @@
       <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="6">
         <v>6</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="29">
         <v>45565</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="31">
         <v>45588</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="29">
         <v>45565</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2495,267 +2495,267 @@
       <c r="J11" s="6">
         <v>6</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="28">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="6">
         <v>6</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6">
         <v>6</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="34"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="6">
         <v>6</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="34"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="34"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="28"/>
     </row>
     <row r="21" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="34"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="34"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J23" s="6">
         <v>6</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="3:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="28"/>
     </row>
     <row r="25" spans="3:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J25" s="6">
         <v>6</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="J26" s="6">
         <v>6</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="6">
         <v>6</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="29">
         <v>45590</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="29">
         <v>45594</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="29">
         <v>45590</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2764,57 +2764,57 @@
       <c r="J28" s="6">
         <v>6</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="28">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="6">
         <v>6</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="3:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="34"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="6">
         <v>6</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="29">
         <v>45596</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="29">
         <v>45604</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="29">
         <v>45596</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -2823,132 +2823,132 @@
       <c r="J31" s="6">
         <v>4</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="28">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="34"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="34"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
       <c r="I33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="28"/>
     </row>
     <row r="34" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C34" s="34"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="6">
         <v>3</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="34"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="28"/>
     </row>
     <row r="37" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C37" s="34"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="6">
         <v>4</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="34"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
       <c r="I38" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="29">
         <v>45607</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="29">
         <v>45615</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="29">
         <v>45607</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2957,237 +2957,237 @@
       <c r="J39" s="6">
         <v>2</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="28">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="34"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
       <c r="I40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J40" s="6">
         <v>4</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
       <c r="I41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="6">
         <v>2</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="34"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
       <c r="I42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J42" s="6">
         <v>4</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
       <c r="I43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
       <c r="I44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="6">
         <v>5</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="28"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
       <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
       <c r="I48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
       <c r="I49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="28"/>
     </row>
     <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="6" t="s">
         <v>59</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
       <c r="I51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="J51" s="6">
         <v>2</v>
       </c>
-      <c r="K51" s="34"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
       <c r="I52" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
       <c r="I53" s="6" t="s">
         <v>62</v>
       </c>
       <c r="J53" s="6">
         <v>2</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="35">
         <v>45616</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="35">
         <v>45616</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="35">
         <v>45616</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="37">
         <v>0.58333333333333337</v>
       </c>
       <c r="I54" s="6" t="s">
@@ -3196,42 +3196,42 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K54" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="27"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="9" t="s">
         <v>64</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
-      <c r="K55" s="27"/>
+      <c r="K55" s="34"/>
     </row>
     <row r="56" spans="3:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="29">
         <v>45617</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="29">
         <v>45618</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="29">
         <v>45618</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="30">
         <v>0.58333333333333337</v>
       </c>
       <c r="I56" s="6" t="s">
@@ -3240,39 +3240,39 @@
       <c r="J56" s="6">
         <v>3</v>
       </c>
-      <c r="K56" s="34">
+      <c r="K56" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="3:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
       <c r="I57" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J57" s="6">
         <v>3</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="28"/>
     </row>
     <row r="58" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
       <c r="I58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="6">
         <v>6</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="28"/>
     </row>
     <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
@@ -3304,22 +3304,22 @@
       </c>
     </row>
     <row r="60" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="35">
         <v>45622</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="35">
         <v>45622</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="35">
         <v>45622</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="30">
+      <c r="H60" s="37">
         <v>0.58333333333333337</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3328,50 +3328,50 @@
       <c r="J60" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="25">
+      <c r="K60" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C61" s="26"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="2" t="s">
         <v>68</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="26"/>
+      <c r="K61" s="33"/>
     </row>
     <row r="62" spans="3:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="27"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
-      <c r="K62" s="27"/>
+      <c r="K62" s="34"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="5">
         <f>SUM(J7:J62)</f>
         <v>240</v>
@@ -3383,6 +3383,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K31:K38"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="D11:D27"/>
+    <mergeCell ref="E11:E27"/>
+    <mergeCell ref="F11:F27"/>
+    <mergeCell ref="G11:G27"/>
+    <mergeCell ref="H11:H27"/>
+    <mergeCell ref="K11:K27"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="C4:K5"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="C63:I63"/>
@@ -3399,49 +3442,6 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="D11:D27"/>
-    <mergeCell ref="E11:E27"/>
-    <mergeCell ref="F11:F27"/>
-    <mergeCell ref="G11:G27"/>
-    <mergeCell ref="H11:H27"/>
-    <mergeCell ref="K11:K27"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="C39:C53"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="K31:K38"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="D39:D53"/>
-    <mergeCell ref="E39:E53"/>
-    <mergeCell ref="F39:F53"/>
-    <mergeCell ref="G39:G53"/>
-    <mergeCell ref="H39:H53"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,14 +3452,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB14C4-DC0E-4802-9506-F4694C0E8E07}">
   <dimension ref="C1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M6:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="7" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="31.28515625" customWidth="1"/>
     <col min="10" max="10" width="40.42578125" customWidth="1"/>
@@ -3467,66 +3469,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="3:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="52" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="3:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="3:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3564,105 +3566,105 @@
       </c>
     </row>
     <row r="6" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="29">
         <v>45559</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>45562</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="29">
         <v>45559</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="53" t="s">
         <v>85</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>6</v>
       </c>
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="6">
         <v>3</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="42"/>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29">
         <v>45560</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="53" t="s">
         <v>89</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="57"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="34"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="3">
         <v>45561</v>
       </c>
@@ -3672,7 +3674,7 @@
       <c r="J10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="6">
         <v>6</v>
       </c>
@@ -3681,11 +3683,11 @@
       </c>
     </row>
     <row r="11" spans="3:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="3">
         <v>45562</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="J11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="6">
         <v>6</v>
       </c>
@@ -3704,343 +3706,343 @@
       </c>
     </row>
     <row r="12" spans="3:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="35">
         <v>45565</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="54">
         <v>45588</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="35">
         <v>45565</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="41" t="s">
         <v>95</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="28" t="s">
         <v>121</v>
       </c>
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="46"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="28">
+      <c r="C14" s="33"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="35">
         <v>45566</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="41" t="s">
         <v>96</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="46"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="3:18" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28">
+      <c r="C16" s="33"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="35">
         <v>45567</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="41" t="s">
         <v>97</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="28"/>
       <c r="L16" s="6">
         <v>4</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="26"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="34"/>
+      <c r="K17" s="28"/>
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="28">
+      <c r="C18" s="33"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="35">
         <v>45568</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="41" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="28"/>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="46"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="34"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="28">
+      <c r="C20" s="33"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="35">
         <v>45569</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="41" t="s">
         <v>110</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="28"/>
       <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="46"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="34"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="6">
         <v>3</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="3:13" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="28">
+      <c r="C22" s="33"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="35">
         <v>45572</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="41" t="s">
         <v>190</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="6">
         <v>4</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="46"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="28"/>
       <c r="L23" s="6">
         <v>2</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="3:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="26"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="28">
+      <c r="C24" s="33"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="35">
         <v>45573</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="41" t="s">
         <v>99</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="6">
         <v>4</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="26"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="46"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="34"/>
+      <c r="K25" s="28"/>
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="26"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="28">
+      <c r="C26" s="33"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="35">
         <v>45574</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I26" s="41" t="s">
         <v>100</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="28"/>
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="46"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="34"/>
+      <c r="K27" s="28"/>
       <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="3">
         <v>45575</v>
       </c>
@@ -4050,7 +4052,7 @@
       <c r="J28" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="28"/>
       <c r="L28" s="6">
         <v>6</v>
       </c>
@@ -4059,11 +4061,11 @@
       </c>
     </row>
     <row r="29" spans="3:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="3">
         <v>45579</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="J29" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="6">
         <v>6</v>
       </c>
@@ -4082,131 +4084,131 @@
       </c>
     </row>
     <row r="30" spans="3:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="28">
+      <c r="C30" s="33"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="35">
         <v>45580</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="41" t="s">
         <v>103</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="28"/>
       <c r="L30" s="6">
         <v>4</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="26"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="46"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="34"/>
+      <c r="K31" s="28"/>
       <c r="L31" s="6">
         <v>2</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="28">
+      <c r="C32" s="33"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="35">
         <v>45581</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="43" t="s">
         <v>104</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="28"/>
       <c r="L32" s="6">
         <v>4</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="3:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="53"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K33" s="34"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="6">
         <v>2</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34" spans="3:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="28">
+      <c r="C34" s="33"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="35">
         <v>45582</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="45" t="s">
         <v>105</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="6">
         <v>4</v>
       </c>
-      <c r="M34" s="61">
+      <c r="M34" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="60"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="34"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="62"/>
+      <c r="M35" s="48"/>
     </row>
     <row r="36" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="3">
         <v>45583</v>
       </c>
@@ -4216,7 +4218,7 @@
       <c r="J36" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="6">
         <v>6</v>
       </c>
@@ -4225,51 +4227,51 @@
       </c>
     </row>
     <row r="37" spans="3:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="28">
+      <c r="C37" s="33"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="35">
         <v>45586</v>
       </c>
-      <c r="I37" s="46" t="s">
+      <c r="I37" s="41" t="s">
         <v>107</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="34"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="3:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="46"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="6">
         <v>3</v>
       </c>
-      <c r="M38" s="43"/>
+      <c r="M38" s="42"/>
     </row>
     <row r="39" spans="3:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="3">
         <v>45587</v>
       </c>
@@ -4279,7 +4281,7 @@
       <c r="J39" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K39" s="34"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="6">
         <v>6</v>
       </c>
@@ -4288,507 +4290,507 @@
       </c>
     </row>
     <row r="40" spans="3:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="36">
+      <c r="C40" s="33"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="29">
         <v>45588</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="44" t="s">
         <v>109</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="6">
         <v>4</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="3:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="27"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="54"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="28"/>
       <c r="L41" s="6">
         <v>2</v>
       </c>
-      <c r="M41" s="43"/>
+      <c r="M41" s="42"/>
     </row>
     <row r="42" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="29">
         <v>45590</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="29">
         <v>45594</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="29">
         <v>45590</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" s="41" t="s">
         <v>123</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="28" t="s">
         <v>126</v>
       </c>
       <c r="L42" s="6">
         <v>2</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C43" s="34"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="46"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="28"/>
       <c r="L43" s="6">
         <v>2</v>
       </c>
-      <c r="M43" s="43"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="3:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="34"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="46"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="28"/>
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="43"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45" spans="3:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="34"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29">
         <v>45593</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="41" t="s">
         <v>124</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="34"/>
+      <c r="K45" s="28"/>
       <c r="L45" s="6">
         <v>2</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" s="34"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="46"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="28"/>
       <c r="L46" s="6">
         <v>2</v>
       </c>
-      <c r="M46" s="43"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="47" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C47" s="34"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="46"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="K47" s="34"/>
+      <c r="K47" s="28"/>
       <c r="L47" s="6">
         <v>2</v>
       </c>
-      <c r="M47" s="43"/>
+      <c r="M47" s="42"/>
     </row>
     <row r="48" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29">
         <v>45594</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="41" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="28"/>
       <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="42">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="46"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K49" s="34"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="6">
         <v>2</v>
       </c>
-      <c r="M49" s="43"/>
+      <c r="M49" s="42"/>
     </row>
     <row r="50" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="46"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="28"/>
       <c r="L50" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="43"/>
+      <c r="M50" s="42"/>
     </row>
     <row r="51" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="29">
         <v>45596</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="29">
         <v>45604</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="29">
         <v>45596</v>
       </c>
-      <c r="I51" s="46" t="s">
+      <c r="I51" s="41" t="s">
         <v>128</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="K51" s="34" t="s">
+      <c r="K51" s="28" t="s">
         <v>136</v>
       </c>
       <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="M51" s="34">
+      <c r="M51" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="34"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="46"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="28"/>
       <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M52" s="34"/>
+      <c r="M52" s="28"/>
     </row>
     <row r="53" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="34"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="46"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="34"/>
+      <c r="K53" s="28"/>
       <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="M53" s="34"/>
+      <c r="M53" s="28"/>
     </row>
     <row r="54" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="34"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="46"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="28"/>
       <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="M54" s="34"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="34"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="46"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K55" s="34"/>
+      <c r="K55" s="28"/>
       <c r="L55" s="6">
         <v>1</v>
       </c>
-      <c r="M55" s="34"/>
+      <c r="M55" s="28"/>
     </row>
     <row r="56" spans="3:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="34"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="46"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="28"/>
       <c r="L56" s="6">
         <v>1</v>
       </c>
-      <c r="M56" s="34"/>
+      <c r="M56" s="28"/>
     </row>
     <row r="57" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C57" s="34"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36">
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="29">
         <v>45602</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" s="41" t="s">
         <v>129</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="34"/>
+      <c r="K57" s="28"/>
       <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C58" s="34"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="48"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="28"/>
       <c r="L58" s="6">
         <v>1</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="28"/>
     </row>
     <row r="59" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59" s="34"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="48" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="57" t="s">
         <v>131</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="34"/>
+      <c r="K59" s="28"/>
       <c r="L59" s="6">
         <v>2</v>
       </c>
-      <c r="M59" s="34"/>
+      <c r="M59" s="28"/>
     </row>
     <row r="60" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="34"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="48"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K60" s="34"/>
+      <c r="K60" s="28"/>
       <c r="L60" s="6">
         <v>1</v>
       </c>
-      <c r="M60" s="34"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="3:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="34"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36">
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="29">
         <v>45603</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" s="41" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="K61" s="34"/>
+      <c r="K61" s="28"/>
       <c r="L61" s="6">
         <v>2</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C62" s="34"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="48"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="57"/>
       <c r="J62" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="28"/>
       <c r="L62" s="6">
         <v>1</v>
       </c>
-      <c r="M62" s="34"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="34"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="48" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="57" t="s">
         <v>134</v>
       </c>
       <c r="J63" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="34"/>
+      <c r="K63" s="28"/>
       <c r="L63" s="6">
         <v>2</v>
       </c>
-      <c r="M63" s="34"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C64" s="34"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="48"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="57"/>
       <c r="J64" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="K64" s="34"/>
+      <c r="K64" s="28"/>
       <c r="L64" s="6">
         <v>1</v>
       </c>
-      <c r="M64" s="34"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="3:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="C65" s="34"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36">
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="29">
         <v>45604</v>
       </c>
       <c r="I65" s="20" t="s">
@@ -4797,67 +4799,67 @@
       <c r="J65" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="34"/>
+      <c r="K65" s="28"/>
       <c r="L65" s="6">
         <v>3</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C66" s="34"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="46" t="s">
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="41" t="s">
         <v>135</v>
       </c>
       <c r="J66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K66" s="34"/>
+      <c r="K66" s="28"/>
       <c r="L66" s="6">
         <v>2</v>
       </c>
-      <c r="M66" s="34"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C67" s="34"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="48"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K67" s="34"/>
+      <c r="K67" s="28"/>
       <c r="L67" s="6">
         <v>1</v>
       </c>
-      <c r="M67" s="34"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="3:13" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="29">
         <v>45607</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="29">
         <v>45615</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="29">
         <v>45607</v>
       </c>
       <c r="I68" s="22" t="s">
@@ -4866,260 +4868,260 @@
       <c r="J68" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="28" t="s">
         <v>169</v>
       </c>
       <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="34">
+      <c r="M68" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="3:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="34"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="46" t="s">
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="41" t="s">
         <v>140</v>
       </c>
       <c r="J69" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K69" s="34"/>
+      <c r="K69" s="28"/>
       <c r="L69" s="6">
         <v>2</v>
       </c>
-      <c r="M69" s="34"/>
+      <c r="M69" s="28"/>
     </row>
     <row r="70" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C70" s="34"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="46"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="41"/>
       <c r="J70" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="28"/>
       <c r="L70" s="6">
         <v>2</v>
       </c>
-      <c r="M70" s="34"/>
+      <c r="M70" s="28"/>
     </row>
     <row r="71" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C71" s="34"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36">
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="29">
         <v>45608</v>
       </c>
-      <c r="I71" s="53" t="s">
+      <c r="I71" s="43" t="s">
         <v>139</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="K71" s="34"/>
+      <c r="K71" s="28"/>
       <c r="L71" s="6">
         <v>2</v>
       </c>
-      <c r="M71" s="34">
+      <c r="M71" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C72" s="34"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="53"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="K72" s="34"/>
+      <c r="K72" s="28"/>
       <c r="L72" s="6">
         <v>1</v>
       </c>
-      <c r="M72" s="34"/>
+      <c r="M72" s="28"/>
     </row>
     <row r="73" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="34"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="54" t="s">
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="44" t="s">
         <v>138</v>
       </c>
       <c r="J73" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="34"/>
+      <c r="K73" s="28"/>
       <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="M73" s="34"/>
+      <c r="M73" s="28"/>
     </row>
     <row r="74" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C74" s="34"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="54"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="44"/>
       <c r="J74" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="28"/>
       <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="M74" s="34"/>
+      <c r="M74" s="28"/>
     </row>
     <row r="75" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C75" s="34"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="54"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="44"/>
       <c r="J75" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K75" s="34"/>
+      <c r="K75" s="28"/>
       <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="M75" s="34"/>
+      <c r="M75" s="28"/>
     </row>
     <row r="76" spans="3:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="34"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36">
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="29">
         <v>45609</v>
       </c>
-      <c r="I76" s="46" t="s">
+      <c r="I76" s="41" t="s">
         <v>137</v>
       </c>
       <c r="J76" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="K76" s="34"/>
-      <c r="L76" s="43">
+      <c r="K76" s="28"/>
+      <c r="L76" s="42">
         <v>2</v>
       </c>
-      <c r="M76" s="34">
+      <c r="M76" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C77" s="34"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="46"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="41"/>
       <c r="J77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K77" s="34"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="34"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="28"/>
     </row>
     <row r="78" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C78" s="34"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="46"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="41"/>
       <c r="J78" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="34"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="28"/>
     </row>
     <row r="79" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="34"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="29"/>
       <c r="I79" s="20" t="s">
         <v>236</v>
       </c>
       <c r="J79" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K79" s="34"/>
+      <c r="K79" s="28"/>
       <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="M79" s="34"/>
+      <c r="M79" s="28"/>
     </row>
     <row r="80" spans="3:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="34"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="46" t="s">
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="41" t="s">
         <v>246</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K80" s="34"/>
+      <c r="K80" s="28"/>
       <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="M80" s="34"/>
+      <c r="M80" s="28"/>
     </row>
     <row r="81" spans="3:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="34"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="46"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="41"/>
       <c r="J81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="K81" s="34"/>
+      <c r="K81" s="28"/>
       <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="M81" s="34"/>
+      <c r="M81" s="28"/>
     </row>
     <row r="82" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="34"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36">
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="29">
         <v>45610</v>
       </c>
       <c r="I82" s="20" t="s">
@@ -5128,57 +5130,57 @@
       <c r="J82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="K82" s="34"/>
+      <c r="K82" s="28"/>
       <c r="L82" s="6">
         <v>3</v>
       </c>
-      <c r="M82" s="34">
+      <c r="M82" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="3:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="34"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="46" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="41" t="s">
         <v>147</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="K83" s="34"/>
+      <c r="K83" s="28"/>
       <c r="L83" s="6">
         <v>2</v>
       </c>
-      <c r="M83" s="34"/>
+      <c r="M83" s="28"/>
     </row>
     <row r="84" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C84" s="34"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="46"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="41"/>
       <c r="J84" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="K84" s="34"/>
+      <c r="K84" s="28"/>
       <c r="L84" s="6">
         <v>1</v>
       </c>
-      <c r="M84" s="34"/>
+      <c r="M84" s="28"/>
     </row>
     <row r="85" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C85" s="34"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="36">
+      <c r="C85" s="28"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="29">
         <v>45611</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -5187,57 +5189,57 @@
       <c r="J85" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K85" s="34"/>
+      <c r="K85" s="28"/>
       <c r="L85" s="6">
         <v>3</v>
       </c>
-      <c r="M85" s="34">
+      <c r="M85" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C86" s="34"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="46" t="s">
+      <c r="C86" s="28"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="41" t="s">
         <v>149</v>
       </c>
       <c r="J86" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K86" s="34"/>
+      <c r="K86" s="28"/>
       <c r="L86" s="6">
         <v>2</v>
       </c>
-      <c r="M86" s="34"/>
+      <c r="M86" s="28"/>
     </row>
     <row r="87" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="34"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="46"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="41"/>
       <c r="J87" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="K87" s="34"/>
+      <c r="K87" s="28"/>
       <c r="L87" s="6">
         <v>1</v>
       </c>
-      <c r="M87" s="34"/>
+      <c r="M87" s="28"/>
     </row>
     <row r="88" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C88" s="34"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36">
+      <c r="C88" s="28"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="29">
         <v>45614</v>
       </c>
       <c r="I88" s="20" t="s">
@@ -5246,40 +5248,40 @@
       <c r="J88" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="K88" s="34"/>
+      <c r="K88" s="28"/>
       <c r="L88" s="6">
         <v>4</v>
       </c>
-      <c r="M88" s="34">
+      <c r="M88" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C89" s="34"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="29"/>
       <c r="I89" s="20" t="s">
         <v>170</v>
       </c>
       <c r="J89" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K89" s="34"/>
+      <c r="K89" s="28"/>
       <c r="L89" s="6">
         <v>2</v>
       </c>
-      <c r="M89" s="34"/>
+      <c r="M89" s="28"/>
     </row>
     <row r="90" spans="3:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="C90" s="34"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36">
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="29">
         <v>45615</v>
       </c>
       <c r="I90" s="20" t="s">
@@ -5288,213 +5290,213 @@
       <c r="J90" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="K90" s="34"/>
+      <c r="K90" s="28"/>
       <c r="L90" s="6">
         <v>4</v>
       </c>
-      <c r="M90" s="34">
+      <c r="M90" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C91" s="34"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="29"/>
       <c r="I91" s="20" t="s">
         <v>152</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="K91" s="34"/>
+      <c r="K91" s="28"/>
       <c r="L91" s="6">
         <v>2</v>
       </c>
-      <c r="M91" s="34"/>
+      <c r="M91" s="28"/>
     </row>
     <row r="92" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="36">
+      <c r="D92" s="29">
         <v>45616</v>
       </c>
-      <c r="E92" s="36">
+      <c r="E92" s="29">
         <v>45616</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H92" s="36">
+      <c r="H92" s="29">
         <v>45616</v>
       </c>
-      <c r="I92" s="47" t="s">
+      <c r="I92" s="60" t="s">
         <v>158</v>
       </c>
       <c r="J92" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K92" s="43"/>
+      <c r="K92" s="42"/>
       <c r="L92" s="6">
         <v>2</v>
       </c>
-      <c r="M92" s="34">
+      <c r="M92" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="34"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="47"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="60"/>
       <c r="J93" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="K93" s="43"/>
+      <c r="K93" s="42"/>
       <c r="L93" s="6">
         <v>1</v>
       </c>
-      <c r="M93" s="34"/>
+      <c r="M93" s="28"/>
     </row>
     <row r="94" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="34"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="47" t="s">
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="60" t="s">
         <v>249</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="K94" s="43"/>
+      <c r="K94" s="42"/>
       <c r="L94" s="6">
         <v>2</v>
       </c>
-      <c r="M94" s="34"/>
+      <c r="M94" s="28"/>
     </row>
     <row r="95" spans="3:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="34"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="47"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="60"/>
       <c r="J95" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K95" s="43"/>
+      <c r="K95" s="42"/>
       <c r="L95" s="6">
         <v>1</v>
       </c>
-      <c r="M95" s="34"/>
+      <c r="M95" s="28"/>
     </row>
     <row r="96" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="29">
         <v>45617</v>
       </c>
-      <c r="E96" s="36">
+      <c r="E96" s="29">
         <v>45618</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H96" s="36">
+      <c r="H96" s="29">
         <v>45617</v>
       </c>
-      <c r="I96" s="44" t="s">
+      <c r="I96" s="58" t="s">
         <v>173</v>
       </c>
       <c r="J96" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K96" s="25" t="s">
+      <c r="K96" s="32" t="s">
         <v>180</v>
       </c>
       <c r="L96" s="6">
         <v>2</v>
       </c>
-      <c r="M96" s="25">
+      <c r="M96" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="3:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="C97" s="34"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="44"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="58"/>
       <c r="J97" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="K97" s="26"/>
+      <c r="K97" s="33"/>
       <c r="L97" s="6">
         <v>1</v>
       </c>
-      <c r="M97" s="26"/>
+      <c r="M97" s="33"/>
     </row>
     <row r="98" spans="3:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="34"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="44" t="s">
+      <c r="C98" s="28"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="58" t="s">
         <v>179</v>
       </c>
       <c r="J98" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="K98" s="26"/>
+      <c r="K98" s="33"/>
       <c r="L98" s="6">
         <v>2</v>
       </c>
-      <c r="M98" s="26"/>
+      <c r="M98" s="33"/>
     </row>
     <row r="99" spans="3:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="34"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="45"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="K99" s="26"/>
+      <c r="K99" s="33"/>
       <c r="L99" s="6">
         <v>1</v>
       </c>
-      <c r="M99" s="27"/>
+      <c r="M99" s="34"/>
     </row>
     <row r="100" spans="3:13" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="34"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
       <c r="H100" s="11">
         <v>45618</v>
       </c>
@@ -5504,7 +5506,7 @@
       <c r="J100" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="K100" s="26"/>
+      <c r="K100" s="33"/>
       <c r="L100" s="6">
         <v>6</v>
       </c>
@@ -5513,74 +5515,74 @@
       </c>
     </row>
     <row r="101" spans="3:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="28">
+      <c r="D101" s="35">
         <v>45621</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="35">
         <v>45621</v>
       </c>
-      <c r="F101" s="30">
+      <c r="F101" s="37">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G101" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H101" s="28">
+      <c r="H101" s="35">
         <v>45621</v>
       </c>
-      <c r="I101" s="41" t="s">
+      <c r="I101" s="61" t="s">
         <v>183</v>
       </c>
       <c r="J101" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K101" s="25" t="s">
+      <c r="K101" s="32" t="s">
         <v>186</v>
       </c>
       <c r="L101" s="2">
         <v>3</v>
       </c>
-      <c r="M101" s="25">
+      <c r="M101" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="3:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="27"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="42"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="62"/>
       <c r="J102" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K102" s="27"/>
+      <c r="K102" s="34"/>
       <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="27"/>
+      <c r="M102" s="34"/>
     </row>
     <row r="103" spans="3:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="36">
+      <c r="D103" s="29">
         <v>45622</v>
       </c>
-      <c r="E103" s="36">
+      <c r="E103" s="29">
         <v>45622</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F103" s="30">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G103" s="35">
+      <c r="G103" s="30">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H103" s="28">
+      <c r="H103" s="35">
         <v>45622</v>
       </c>
       <c r="I103" s="24" t="s">
@@ -5589,64 +5591,64 @@
       <c r="J103" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="K103" s="25" t="s">
+      <c r="K103" s="32" t="s">
         <v>187</v>
       </c>
       <c r="L103" s="2">
         <v>3</v>
       </c>
-      <c r="M103" s="34">
+      <c r="M103" s="28">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C104" s="34"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="31"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="38"/>
       <c r="I104" s="24" t="s">
         <v>242</v>
       </c>
       <c r="J104" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="K104" s="26"/>
+      <c r="K104" s="33"/>
       <c r="L104" s="2">
         <v>1</v>
       </c>
-      <c r="M104" s="34"/>
+      <c r="M104" s="28"/>
     </row>
     <row r="105" spans="3:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="C105" s="34"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="32"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="39"/>
       <c r="I105" s="24" t="s">
         <v>185</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="K105" s="27"/>
+      <c r="K105" s="34"/>
       <c r="L105" s="2">
         <v>2</v>
       </c>
-      <c r="M105" s="34"/>
+      <c r="M105" s="28"/>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12">
@@ -5660,6 +5662,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="M96:M99"/>
+    <mergeCell ref="K96:K100"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="K92:K95"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="M82:M84"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="M71:M75"/>
+    <mergeCell ref="K68:K91"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="C51:C67"/>
+    <mergeCell ref="D51:D67"/>
+    <mergeCell ref="E51:E67"/>
+    <mergeCell ref="F51:F67"/>
+    <mergeCell ref="G51:G67"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="K51:K67"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="M76:M81"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="M51:M56"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="K42:K50"/>
+    <mergeCell ref="M45:M47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="C12:C41"/>
+    <mergeCell ref="D12:D41"/>
+    <mergeCell ref="E12:E41"/>
+    <mergeCell ref="F12:F41"/>
+    <mergeCell ref="G12:G41"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="M48:M50"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="C1:M2"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C106:I106"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="D96:D100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D42:D50"/>
+    <mergeCell ref="E42:E50"/>
+    <mergeCell ref="F42:F50"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="D68:D91"/>
+    <mergeCell ref="E68:E91"/>
     <mergeCell ref="M92:M95"/>
     <mergeCell ref="G92:G95"/>
     <mergeCell ref="I12:I13"/>
@@ -5684,145 +5825,6 @@
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="M34:M35"/>
-    <mergeCell ref="C106:I106"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="D96:D100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D42:D50"/>
-    <mergeCell ref="E42:E50"/>
-    <mergeCell ref="F42:F50"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="C68:C91"/>
-    <mergeCell ref="D68:D91"/>
-    <mergeCell ref="E68:E91"/>
-    <mergeCell ref="C1:M2"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C12:C41"/>
-    <mergeCell ref="D12:D41"/>
-    <mergeCell ref="E12:E41"/>
-    <mergeCell ref="F12:F41"/>
-    <mergeCell ref="G12:G41"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="M48:M50"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="M42:M44"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="M76:M81"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="M51:M56"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="K42:K50"/>
-    <mergeCell ref="M45:M47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="C51:C67"/>
-    <mergeCell ref="D51:D67"/>
-    <mergeCell ref="E51:E67"/>
-    <mergeCell ref="F51:F67"/>
-    <mergeCell ref="G51:G67"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="K51:K67"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="M96:M99"/>
-    <mergeCell ref="K96:K100"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="K92:K95"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="M82:M84"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="M71:M75"/>
-    <mergeCell ref="K68:K91"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="M103:M105"/>
   </mergeCells>
   <conditionalFormatting sqref="I42 I45 I48 J53:J55">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
